--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC394A1-10B0-4CAF-9B3E-4750C9BC35F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D55B80-B1A7-48DB-A80F-20A603C68B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
   <si>
     <t>Runmode</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Verify Product Comparision</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Yes</t>
@@ -625,7 +628,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -671,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -691,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -745,10 +748,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -765,10 +768,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -785,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -805,10 +808,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
@@ -825,10 +828,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -845,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
@@ -865,10 +868,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>17</v>
@@ -885,10 +888,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>17</v>
@@ -905,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>17</v>
@@ -925,10 +928,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
@@ -945,10 +948,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>17</v>
@@ -965,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>17</v>
@@ -985,10 +988,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>17</v>
@@ -1005,10 +1008,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>17</v>
@@ -1025,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>17</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D55B80-B1A7-48DB-A80F-20A603C68B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C062626-01BF-4B4B-A77B-61FA62CD1CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,12 +84,6 @@
     <t>Verify Product Comparision</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>TC05_Verify_login</t>
   </si>
   <si>
@@ -162,6 +156,9 @@
     <t>Verify Checkout with Split Payment (CC &amp; GC)</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>TC07_Verify_MyaccountSection_1</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Verify options present in MYAccount Section - Address book , Profile , Communication address &amp; Wishlist</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
   <si>
     <t>TC18_Verify_CheckOut_PickUp_InStore_AND_ShipTo</t>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -694,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -734,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -748,13 +748,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -768,13 +768,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -788,13 +788,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -808,13 +808,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -828,13 +828,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -848,13 +848,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -868,13 +868,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -888,13 +888,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -908,13 +908,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -928,13 +928,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -948,13 +948,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -968,13 +968,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -988,13 +988,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1034,7 +1034,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C062626-01BF-4B4B-A77B-61FA62CD1CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D50CC-352F-424A-BB6F-DDE917E68AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,6 +84,9 @@
     <t>Verify Product Comparision</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>TC05_Verify_login</t>
   </si>
   <si>
@@ -169,9 +172,6 @@
   </si>
   <si>
     <t>Verify options present in MYAccount Section - Address book , Profile , Communication address &amp; Wishlist</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>TC18_Verify_CheckOut_PickUp_InStore_AND_ShipTo</t>
@@ -628,7 +628,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -694,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -730,11 +730,11 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -748,13 +748,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -768,13 +768,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -788,13 +788,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -808,13 +808,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -828,13 +828,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -848,13 +848,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -868,13 +868,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -888,13 +888,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -908,13 +908,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -928,13 +928,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -948,13 +948,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -968,13 +968,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -988,13 +988,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1034,7 +1034,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D50CC-352F-424A-BB6F-DDE917E68AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F9134B-D308-4703-97FE-CBC73F93B4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -754,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -774,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -854,7 +854,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -874,7 +874,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F9134B-D308-4703-97FE-CBC73F93B4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F567773-162A-4AEF-9261-AA822D3804D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -754,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -774,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -854,7 +854,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -874,7 +874,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -1014,7 +1014,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1034,7 +1034,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F567773-162A-4AEF-9261-AA822D3804D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71915D5F-4216-4234-90BB-3E3CCC433915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E16"/>
+      <selection activeCell="E13" sqref="E13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -894,7 +894,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -914,7 +914,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -934,7 +934,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71915D5F-4216-4234-90BB-3E3CCC433915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCA1E60-B1B1-450A-AA79-26C49C7715FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
   <si>
     <t>Runmode</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Verify Checkout with Split Payment (CC &amp; GC)</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>TC07_Verify_MyaccountSection_1</t>
@@ -628,7 +625,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -694,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -714,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -734,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -754,7 +751,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -774,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -788,13 +785,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -808,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -834,7 +831,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -854,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -874,7 +871,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -894,7 +891,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -914,7 +911,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -934,7 +931,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -974,7 +971,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -994,7 +991,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1014,7 +1011,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1028,13 +1025,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCA1E60-B1B1-450A-AA79-26C49C7715FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB670CEC-F867-4CB3-BE09-164F1DB5EF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
   <si>
     <t>Runmode</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Verify Product Comparision</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Yes</t>
@@ -624,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -691,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -745,10 +748,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -765,10 +768,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -785,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -805,10 +808,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
@@ -825,10 +828,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -845,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
@@ -865,10 +868,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>17</v>
@@ -885,13 +888,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -905,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>17</v>
@@ -925,10 +928,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
@@ -945,13 +948,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -965,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>17</v>
@@ -985,10 +988,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>17</v>
@@ -1005,10 +1008,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>17</v>
@@ -1025,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>17</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB670CEC-F867-4CB3-BE09-164F1DB5EF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159302D-BC36-4A45-80D7-0D4EB9CA2D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E10" sqref="E10:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -894,7 +894,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -954,7 +954,7 @@
         <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159302D-BC36-4A45-80D7-0D4EB9CA2D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B72F83E-2CD4-4E0F-B3BB-75BEDF5B591F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>Runmode</t>
   </si>
@@ -87,9 +87,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>TC05_Verify_login</t>
   </si>
   <si>
@@ -174,10 +171,19 @@
     <t>Verify options present in MYAccount Section - Address book , Profile , Communication address &amp; Wishlist</t>
   </si>
   <si>
+    <t>YES</t>
+  </si>
+  <si>
     <t>TC18_Verify_CheckOut_PickUp_InStore_AND_ShipTo</t>
   </si>
   <si>
     <t>Verify Checkout using Ship to &amp; Pick up in store Method</t>
+  </si>
+  <si>
+    <t>TC19_Verify_Giftcard_SCS_Site</t>
+  </si>
+  <si>
+    <t>Verify Giftcard site</t>
   </si>
 </sst>
 </file>
@@ -625,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -694,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -748,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -768,10 +774,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -788,10 +794,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -808,10 +814,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
@@ -828,10 +834,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -848,10 +854,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
@@ -868,10 +874,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>17</v>
@@ -888,13 +894,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -908,13 +914,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -928,13 +934,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -948,13 +954,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -968,13 +974,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -988,13 +994,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1008,13 +1014,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1034,9 +1040,29 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B72F83E-2CD4-4E0F-B3BB-75BEDF5B591F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3928BE40-53FD-4637-A25F-3ECA3B4D10D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
     <t>TC19_Verify_Giftcard_SCS_Site</t>
   </si>
   <si>
-    <t>Verify Giftcard site</t>
+    <t>Verify Checkout Giftcard site(http://129.213.54.196:8002/scs/gift-card)</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,7 +900,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -920,7 +920,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -940,7 +940,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -980,7 +980,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -1000,7 +1000,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1020,7 +1020,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1040,7 +1040,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3928BE40-53FD-4637-A25F-3ECA3B4D10D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66F8BDA-C861-41BD-88BE-EB9FB063D37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>Runmode</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Verify Product Comparision</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>TC05_Verify_login</t>
@@ -634,7 +631,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -700,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -720,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -740,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -754,13 +751,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -774,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -794,13 +791,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -814,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -834,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -854,13 +851,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -874,13 +871,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -894,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -914,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -934,13 +931,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -954,13 +951,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -974,13 +971,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -994,13 +991,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1014,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1034,13 +1031,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1054,13 +1051,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66F8BDA-C861-41BD-88BE-EB9FB063D37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E0E4D9-ECA4-4300-ADBC-72F970493D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>Runmode</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Verify Checkout with Split Payment (CC &amp; GC)</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>TC07_Verify_MyaccountSection_1</t>
@@ -631,7 +634,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -677,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -697,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -717,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -737,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -757,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -777,7 +780,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -791,13 +794,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -811,13 +814,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -837,7 +840,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -857,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -877,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -897,7 +900,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -917,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -937,7 +940,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -957,7 +960,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -977,7 +980,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -997,7 +1000,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1017,7 +1020,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1031,13 +1034,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1051,13 +1054,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E0E4D9-ECA4-4300-ADBC-72F970493D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F5B8C-689D-4BC1-BE00-387D050B1729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>Runmode</t>
   </si>
@@ -84,6 +84,9 @@
     <t>Verify Product Comparision</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>TC05_Verify_login</t>
   </si>
   <si>
@@ -156,9 +159,6 @@
     <t>Verify Checkout with Split Payment (CC &amp; GC)</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>TC07_Verify_MyaccountSection_1</t>
   </si>
   <si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Verify options present in MYAccount Section - Address book , Profile , Communication address &amp; Wishlist</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>TC18_Verify_CheckOut_PickUp_InStore_AND_ShipTo</t>
@@ -634,7 +631,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -700,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -720,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -740,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -754,13 +751,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -774,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -800,7 +797,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -820,7 +817,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -834,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -854,13 +851,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -874,13 +871,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -894,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -914,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -934,13 +931,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -954,13 +951,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -974,13 +971,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -994,13 +991,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1014,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1034,13 +1031,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1054,13 +1051,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F5B8C-689D-4BC1-BE00-387D050B1729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60023870-49AB-4A8E-85EA-665DA85C1789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$2</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>Runmode</t>
   </si>
@@ -84,9 +85,6 @@
     <t>Verify Product Comparision</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>TC05_Verify_login</t>
   </si>
   <si>
@@ -181,6 +179,12 @@
   </si>
   <si>
     <t>Verify Checkout Giftcard site(http://129.213.54.196:8002/scs/gift-card)</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -272,7 +276,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -281,6 +285,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,7 +636,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -677,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -697,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -717,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -737,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -751,13 +756,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -771,13 +776,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -791,13 +796,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -811,13 +816,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -831,13 +836,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -851,13 +856,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -871,13 +876,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -891,13 +896,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -911,13 +916,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -931,13 +936,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -951,13 +956,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -971,13 +976,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -991,13 +996,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1011,13 +1016,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1031,13 +1036,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1051,13 +1056,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -1067,4 +1072,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8741F-3B75-4B6A-A71F-529CF1A10468}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60023870-49AB-4A8E-85EA-665DA85C1789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0105311-44DE-4662-A716-F989E593ABCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$2</definedName>
@@ -276,7 +275,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -285,7 +284,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,7 +634,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1072,27 +1070,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8741F-3B75-4B6A-A71F-529CF1A10468}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:P24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0105311-44DE-4662-A716-F989E593ABCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1580FA-6BB1-4FD0-BAF5-5440A8C0B285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,7 +634,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1580FA-6BB1-4FD0-BAF5-5440A8C0B285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8A4C8B-38F0-44CF-A99B-C44582FB90FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>Runmode</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -634,7 +631,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -700,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -720,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -740,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -760,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -780,7 +777,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -800,7 +797,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -820,7 +817,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -840,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -860,7 +857,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -880,7 +877,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -900,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -920,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -940,7 +937,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -960,7 +957,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -980,7 +977,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -1000,7 +997,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1020,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1040,7 +1037,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1060,7 +1057,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8A4C8B-38F0-44CF-A99B-C44582FB90FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EF1F7C-44BD-4F3A-9C84-72B724722429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>Runmode</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -717,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -737,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -757,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -777,7 +780,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -797,7 +800,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -817,7 +820,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -837,7 +840,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -857,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -877,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -897,7 +900,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -917,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -937,7 +940,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -957,7 +960,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -977,7 +980,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -997,7 +1000,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1017,7 +1020,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1037,7 +1040,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1057,7 +1060,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EF1F7C-44BD-4F3A-9C84-72B724722429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DD578C-CB10-4FE8-A12B-8930D97F1755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>Runmode</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -634,7 +631,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -700,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -720,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -740,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -760,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -780,7 +777,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -800,7 +797,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -820,7 +817,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -840,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -860,7 +857,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -880,7 +877,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -900,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -920,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -940,7 +937,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -960,7 +957,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -980,7 +977,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -1000,7 +997,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1020,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1040,7 +1037,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1060,7 +1057,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DD578C-CB10-4FE8-A12B-8930D97F1755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B816D49-946E-446A-8D62-9EF832DCA6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>Runmode</t>
   </si>
@@ -180,7 +180,10 @@
     <t>Verify Checkout Giftcard site(http://129.213.54.196:8002/scs/gift-card)</t>
   </si>
   <si>
-    <t>YES</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -281,6 +284,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,7 +635,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E21"/>
+      <selection activeCell="E13" sqref="E13:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -896,8 +900,8 @@
       <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>49</v>
+      <c r="E13" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -916,8 +920,8 @@
       <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>49</v>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -936,8 +940,8 @@
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>49</v>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -956,8 +960,8 @@
       <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>49</v>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -976,8 +980,8 @@
       <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>49</v>
+      <c r="E17" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -996,8 +1000,8 @@
       <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>49</v>
+      <c r="E18" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1016,8 +1020,8 @@
       <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>49</v>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1036,8 +1040,8 @@
       <c r="D20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>49</v>
+      <c r="E20" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1056,8 +1060,8 @@
       <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
+      <c r="E21" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B816D49-946E-446A-8D62-9EF832DCA6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC61232-516E-4871-A6F8-4A4FC37C48E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>Runmode</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Verify Checkout Giftcard site(http://129.213.54.196:8002/scs/gift-card)</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Yes</t>
@@ -190,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -210,13 +207,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -275,16 +265,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +621,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E21"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,7 +666,7 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -700,7 +686,7 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -720,7 +706,7 @@
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -737,10 +723,10 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -754,13 +740,13 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -777,10 +763,10 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -794,13 +780,13 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -814,13 +800,13 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -837,10 +823,10 @@
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -857,10 +843,10 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -877,10 +863,10 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -897,11 +883,11 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>50</v>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -917,11 +903,11 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>50</v>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -937,11 +923,11 @@
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>50</v>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -957,11 +943,11 @@
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>50</v>
+      <c r="E16" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -977,11 +963,11 @@
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>50</v>
+      <c r="E17" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -997,11 +983,11 @@
       <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>50</v>
+      <c r="E18" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1017,11 +1003,11 @@
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>50</v>
+      <c r="E19" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1037,11 +1023,11 @@
       <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>50</v>
+      <c r="E20" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1057,11 +1043,11 @@
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>50</v>
+      <c r="E21" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC61232-516E-4871-A6F8-4A4FC37C48E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C761ECE-07DF-4EF7-AE4E-B1B4AE7CC6DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>Runmode</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E21"/>
+      <selection activeCell="E8" sqref="E8:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,7 +790,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -807,7 +810,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -827,7 +830,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -847,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -867,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -887,7 +890,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -907,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -927,7 +930,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -947,7 +950,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -967,7 +970,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -987,7 +990,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1007,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1027,7 +1030,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1047,7 +1050,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C761ECE-07DF-4EF7-AE4E-B1B4AE7CC6DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAFD1C2-F904-4999-9398-C325D54F8236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E21"/>
+      <selection activeCell="E8" sqref="E8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -690,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -710,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -750,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -770,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -790,7 +790,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -810,7 +810,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -830,7 +830,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -850,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -870,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAFD1C2-F904-4999-9398-C325D54F8236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE14F8C-3C34-4AF3-B8D1-2C64970C27A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E12"/>
+      <selection activeCell="E8" sqref="E8:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -690,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -790,7 +790,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -810,7 +810,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -830,7 +830,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -850,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -870,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE14F8C-3C34-4AF3-B8D1-2C64970C27A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF25F85C-57B3-4033-97FB-FAC846CB11AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E16"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -710,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -750,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -770,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -790,7 +790,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF25F85C-57B3-4033-97FB-FAC846CB11AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D390A-3078-48FA-B823-9C1B187109EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>Runmode</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -624,7 +621,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection activeCell="E8" sqref="E8:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,7 +807,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -830,7 +827,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -850,7 +847,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -870,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -890,7 +887,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -910,7 +907,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -930,7 +927,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -950,7 +947,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -970,7 +967,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -990,7 +987,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1010,7 +1007,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1030,7 +1027,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1050,7 +1047,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D390A-3078-48FA-B823-9C1B187109EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BD8E25-FA6D-4176-91A9-9BB156EA2C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>Runmode</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,7 +790,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -807,7 +810,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -827,7 +830,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -847,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -867,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -887,7 +890,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -907,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -927,7 +930,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -947,7 +950,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -967,7 +970,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -987,7 +990,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1007,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1027,7 +1030,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1047,7 +1050,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BD8E25-FA6D-4176-91A9-9BB156EA2C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F800D4A5-ABFA-4CD7-884E-BB70AD6E6A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -690,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -710,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -750,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -770,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -890,7 +890,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -910,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -930,7 +930,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -950,7 +950,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -970,7 +970,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -990,7 +990,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1010,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1030,7 +1030,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1050,7 +1050,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
